--- a/DBA组/4.8SQL需求文档/4.8SQL表格/Teacher表.xlsx
+++ b/DBA组/4.8SQL需求文档/4.8SQL表格/Teacher表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Teacher表</t>
   </si>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>科目</t>
+  </si>
+  <si>
+    <t>attend</t>
+  </si>
+  <si>
+    <t>出勤</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>单节薪资</t>
   </si>
 </sst>
 </file>
@@ -101,8 +113,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -114,14 +126,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -129,7 +133,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -137,51 +141,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,19 +157,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -217,15 +171,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -241,9 +200,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,8 +215,61 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,31 +284,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,156 +470,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="29">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -638,6 +656,37 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -670,6 +719,19 @@
     <border>
       <left/>
       <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -686,12 +748,93 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -699,7 +842,85 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,93 +935,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -809,10 +943,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -821,7 +955,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -830,128 +964,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,16 +1143,73 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1340,10 +1531,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:J15"/>
+  <dimension ref="B1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B15"/>
+      <selection activeCell="G10" sqref="G10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1351,7 +1542,7 @@
     <col min="1" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.75" spans="4:5">
+    <row r="1" spans="4:5">
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1379,8 +1570,8 @@
       <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="12" t="s">
+      <c r="I2" s="28"/>
+      <c r="J2" s="29" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1392,8 +1583,8 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="14"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="9" t="s">
@@ -1415,8 +1606,8 @@
         <v>13</v>
       </c>
       <c r="H4" s="10"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="12" t="s">
+      <c r="I4" s="32"/>
+      <c r="J4" s="33" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1428,8 +1619,8 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="14"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="9" t="s">
@@ -1451,8 +1642,8 @@
       <c r="H6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="12"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="9"/>
@@ -1462,8 +1653,8 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="14"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="31"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="11" t="s">
@@ -1485,8 +1676,8 @@
       <c r="H8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="12"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="13"/>
@@ -1496,8 +1687,8 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="14"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="11" t="s">
@@ -1517,8 +1708,8 @@
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="12"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="13"/>
@@ -1528,8 +1719,8 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="14"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="11" t="s">
@@ -1549,8 +1740,8 @@
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="12"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="13"/>
@@ -1560,8 +1751,8 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="14"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="31"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="15" t="s">
@@ -1581,10 +1772,10 @@
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="12"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="33"/>
     </row>
-    <row r="15" ht="14.75" spans="2:10">
+    <row r="15" spans="2:10">
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -1592,11 +1783,73 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="14"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="20">
+        <v>50</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="20">
+        <v>50</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+    </row>
+    <row r="19" ht="14.75" spans="2:10">
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="73">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
@@ -1605,6 +1858,8 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
@@ -1612,6 +1867,8 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D6:D7"/>
@@ -1619,6 +1876,8 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
@@ -1626,6 +1885,8 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
@@ -1633,6 +1894,8 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G7"/>
@@ -1640,6 +1903,8 @@
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J6:J7"/>
@@ -1647,6 +1912,8 @@
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
     <mergeCell ref="H2:I3"/>
     <mergeCell ref="H4:I5"/>
     <mergeCell ref="H6:I7"/>
@@ -1654,6 +1921,8 @@
     <mergeCell ref="H10:I11"/>
     <mergeCell ref="H12:I13"/>
     <mergeCell ref="H14:I15"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="H18:I19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/DBA组/4.8SQL需求文档/4.8SQL表格/Teacher表.xlsx
+++ b/DBA组/4.8SQL需求文档/4.8SQL表格/Teacher表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18650" windowHeight="7110"/>
+    <workbookView windowWidth="14150" windowHeight="6840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Teacher表</t>
   </si>
@@ -64,6 +64,9 @@
     <t>登录表id</t>
   </si>
   <si>
+    <t>是(login_id)</t>
+  </si>
+  <si>
     <t>ts_id</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">int </t>
+  </si>
+  <si>
+    <t>是(s_id)</t>
   </si>
   <si>
     <t>t_name</t>
@@ -113,8 +119,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -133,15 +139,52 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,31 +198,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,17 +212,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,6 +252,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -246,28 +274,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -290,55 +296,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,127 +470,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,6 +840,45 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,45 +892,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -897,30 +903,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -935,6 +917,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -943,10 +949,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -958,130 +964,130 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1534,7 +1540,7 @@
   <dimension ref="B1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G11"/>
+      <selection activeCell="H8" sqref="H8:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1542,7 +1548,7 @@
     <col min="1" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:5">
+    <row r="1" ht="14.75" spans="4:5">
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1640,7 +1646,7 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I6" s="32"/>
       <c r="J6" s="33"/>
@@ -1658,13 +1664,13 @@
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="12">
         <v>11</v>
@@ -1674,7 +1680,7 @@
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="33"/>
@@ -1692,13 +1698,13 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10" s="12">
         <v>50</v>
@@ -1724,10 +1730,10 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>11</v>
@@ -1756,13 +1762,13 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E14" s="12">
         <v>50</v>
@@ -1788,10 +1794,10 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>11</v>
@@ -1820,10 +1826,10 @@
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>11</v>
